--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE46B5FB-1AAA-4875-AAC8-0EC2193D768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E86D3-F7E3-4917-A514-9B2E42DFB81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -238,6 +238,30 @@
   </si>
   <si>
     <t>state_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_vision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_atk_range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础视野半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击范围半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,24 +640,25 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="9" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,52 +672,58 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -706,22 +737,22 @@
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -750,8 +781,14 @@
       <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -773,8 +810,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -788,52 +827,58 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -844,26 +889,30 @@
       <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="3">
+        <v>360</v>
+      </c>
+      <c r="F5" s="3">
+        <v>125</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>800</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>20</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.1</v>
-      </c>
       <c r="M5" s="3">
         <v>0.1</v>
       </c>
@@ -883,10 +932,16 @@
         <v>0.1</v>
       </c>
       <c r="S5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U5" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -897,26 +952,30 @@
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="3">
+        <v>360</v>
+      </c>
+      <c r="F6" s="3">
+        <v>125</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>500</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>40</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.1</v>
-      </c>
       <c r="M6" s="3">
         <v>0.1</v>
       </c>
@@ -924,22 +983,28 @@
         <v>0.1</v>
       </c>
       <c r="O6" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P6" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q6" s="3">
         <v>0.2</v>
       </c>
       <c r="R6" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U6" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -950,49 +1015,59 @@
       <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+      <c r="F7" s="3">
+        <v>125</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>400</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>50</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.5</v>
       </c>
       <c r="N7" s="3">
         <v>0.5</v>
       </c>
       <c r="O7" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="3">
         <v>0.5</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
         <v>0.5</v>
       </c>
       <c r="S7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1003,37 +1078,41 @@
       <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="3">
+        <v>360</v>
+      </c>
+      <c r="F8" s="3">
+        <v>125</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30</v>
       </c>
-      <c r="K8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.1</v>
-      </c>
       <c r="M8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="3">
         <v>0.2</v>
       </c>
-      <c r="N8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -1042,31 +1121,79 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>30</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1086,6 +1213,307 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E86D3-F7E3-4917-A514-9B2E42DFB81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93708E-B8C7-4FBE-BEA9-FE9CA1008ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>Elf1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wraith1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -630,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1042,7 @@
         <v>49</v>
       </c>
       <c r="K7" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L7" s="3">
         <v>50</v>
@@ -1195,26 +1203,66 @@
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>360</v>
+      </c>
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="3">
+        <v>500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>30</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U10" s="3">
+        <v>900</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>

--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93708E-B8C7-4FBE-BEA9-FE9CA1008ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A81551-4BBA-43A7-8891-3966898D6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -225,22 +226,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下一精皮肤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_state_skin_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一共多少精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>state_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>base_vision</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,6 +255,61 @@
   </si>
   <si>
     <t>亡灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO: 花园掉落的物品（目前副本获得）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专精需要诗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_pole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyType.EMoneys</t>
+  </si>
+  <si>
+    <t>斧头书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕首书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长枪书</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,23 +690,23 @@
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.75" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,58 +720,55 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,16 +788,16 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -792,11 +829,8 @@
       <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -819,9 +853,8 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -835,58 +868,55 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -903,53 +933,50 @@
       <c r="F5" s="3">
         <v>125</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="J5" s="3">
+        <v>800</v>
+      </c>
       <c r="K5" s="3">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="T5" s="3">
         <v>800</v>
       </c>
-      <c r="L5" s="3">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -966,23 +993,23 @@
       <c r="F6" s="3">
         <v>125</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="J6" s="3">
+        <v>500</v>
+      </c>
       <c r="K6" s="3">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="L6" s="3">
-        <v>40</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="3">
         <v>0.1</v>
@@ -994,7 +1021,7 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" s="3">
         <v>0.2</v>
@@ -1003,16 +1030,13 @@
         <v>0.2</v>
       </c>
       <c r="S6" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="U6" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -1029,26 +1053,26 @@
       <c r="F7" s="3">
         <v>125</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
+      <c r="G7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3">
+        <v>600</v>
+      </c>
+      <c r="K7" s="3">
         <v>50</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="3">
-        <v>600</v>
-      </c>
       <c r="L7" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="3">
         <v>0.5</v>
@@ -1057,10 +1081,10 @@
         <v>0.5</v>
       </c>
       <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0.5</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
       </c>
       <c r="R7" s="3">
         <v>0.5</v>
@@ -1069,13 +1093,10 @@
         <v>0.5</v>
       </c>
       <c r="T7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1092,35 +1113,35 @@
       <c r="F8" s="3">
         <v>125</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="3">
         <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="3">
-        <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>30</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0.1</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -1132,19 +1153,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>41</v>
@@ -1155,23 +1173,23 @@
       <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="J9" s="3">
+        <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="L9" s="3">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
         <v>0.1</v>
@@ -1195,19 +1213,16 @@
         <v>0.1</v>
       </c>
       <c r="T9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="U9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -1218,23 +1233,23 @@
       <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="J10" s="3">
+        <v>500</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="L10" s="3">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="3">
         <v>0.2</v>
@@ -1258,13 +1273,10 @@
         <v>0.2</v>
       </c>
       <c r="T10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="U10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1285,9 +1297,8 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1308,9 +1319,8 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1331,9 +1341,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1354,9 +1363,8 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1377,9 +1385,8 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1400,9 +1407,8 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1423,9 +1429,8 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1446,9 +1451,8 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1469,9 +1473,8 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1492,9 +1495,8 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1515,9 +1517,8 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1538,9 +1539,8 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1561,7 +1561,55 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046D23C-00A4-4C58-8F0C-5506679D32EC}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A81551-4BBA-43A7-8891-3966898D6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599AC587-45DA-4AEA-B4A6-848AEF7494E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -310,6 +310,30 @@
   </si>
   <si>
     <t>长枪书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireElemental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindElemental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceElemental</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,8 +712,8 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="7.25" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
@@ -1278,69 +1302,183 @@
     </row>
     <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="3">
+        <v>400</v>
+      </c>
+      <c r="K11" s="3">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>800</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>30</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>800</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="3">
+        <v>400</v>
+      </c>
+      <c r="K13" s="3">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>800</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>

--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599AC587-45DA-4AEA-B4A6-848AEF7494E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D73D9A-548E-4F15-84F0-A113545CFFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄金矿工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldMiner1</t>
   </si>
   <si>
@@ -184,14 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图标路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://icon.svg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DarkElf</t>
   </si>
   <si>
@@ -203,18 +191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>暗精灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忍者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ninja1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,10 +218,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>精灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Elf1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,10 +226,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>亡灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>角色升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -313,18 +281,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>风元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FireElemental</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -334,6 +290,109 @@
   </si>
   <si>
     <t>IceElemental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldMinerAvatar</t>
+  </si>
+  <si>
+    <t>图标名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkElf1Avatar</t>
+  </si>
+  <si>
+    <t>ReaperManAvatar</t>
+  </si>
+  <si>
+    <t>Ninja1Avatar</t>
+  </si>
+  <si>
+    <t>Elf1Avatar</t>
+  </si>
+  <si>
+    <t>WraithAvatar</t>
+  </si>
+  <si>
+    <t>WindElementalAvatar</t>
+  </si>
+  <si>
+    <t>FireElementalAvatar</t>
+  </si>
+  <si>
+    <t>IceElementalAvatar</t>
+  </si>
+  <si>
+    <t>StaryAvatar</t>
+  </si>
+  <si>
+    <t>DarkElf2Avatar</t>
+  </si>
+  <si>
+    <t>DarkElf3Avatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题深处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黑幻想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺魂之镰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九局下半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬眠合剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退化案例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自伴算符</t>
+  </si>
+  <si>
+    <t>霍曼转移</t>
+  </si>
+  <si>
+    <t>基尼系数</t>
+  </si>
+  <si>
+    <t>芒阿粒子</t>
+  </si>
+  <si>
+    <t>无知之幕</t>
+  </si>
+  <si>
+    <t>卷积神经</t>
+  </si>
+  <si>
+    <t>DarkElf2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkElf3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Satry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:T13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,22 +770,20 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
     <col min="8" max="8" width="7.25" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="9.875" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -741,19 +798,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -812,10 +869,10 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
@@ -889,19 +946,19 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -946,10 +1003,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3">
         <v>360</v>
@@ -958,46 +1015,46 @@
         <v>125</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="K5" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1006,10 +1063,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3">
         <v>360</v>
@@ -1018,19 +1075,19 @@
         <v>125</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K6" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3">
         <v>0.1</v>
@@ -1039,25 +1096,25 @@
         <v>0.1</v>
       </c>
       <c r="N6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1066,10 +1123,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3">
         <v>360</v>
@@ -1078,46 +1135,46 @@
         <v>125</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K7" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L7" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1126,10 +1183,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3">
         <v>360</v>
@@ -1138,31 +1195,31 @@
         <v>125</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -1177,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1186,10 +1243,10 @@
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3">
         <v>1200</v>
@@ -1198,19 +1255,19 @@
         <v>1200</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3">
         <v>0.1</v>
@@ -1219,25 +1276,25 @@
         <v>0.1</v>
       </c>
       <c r="N9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1246,58 +1303,58 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>360</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1306,10 +1363,10 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3">
         <v>1200</v>
@@ -1318,16 +1375,16 @@
         <v>1200</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K11" s="3">
         <v>30</v>
@@ -1339,25 +1396,25 @@
         <v>0.1</v>
       </c>
       <c r="N11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3">
         <v>0.1</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1366,10 +1423,10 @@
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3">
         <v>1200</v>
@@ -1378,16 +1435,16 @@
         <v>1200</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>30</v>
@@ -1399,25 +1456,25 @@
         <v>0.1</v>
       </c>
       <c r="N12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>0.1</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.35">
@@ -1426,10 +1483,10 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3">
         <v>1200</v>
@@ -1438,16 +1495,16 @@
         <v>1200</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J13" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K13" s="3">
         <v>30</v>
@@ -1459,92 +1516,206 @@
         <v>0.1</v>
       </c>
       <c r="N13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
         <v>0.1</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3">
+        <v>360</v>
+      </c>
+      <c r="F14" s="3">
+        <v>125</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="3">
+        <v>300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3">
+        <v>360</v>
+      </c>
+      <c r="F15" s="3">
+        <v>125</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>50</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3">
+        <v>360</v>
+      </c>
+      <c r="F16" s="3">
+        <v>125</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="3">
+        <v>150</v>
+      </c>
+      <c r="K16" s="3">
+        <v>25</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>700</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -1721,32 +1892,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D73D9A-548E-4F15-84F0-A113545CFFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9738C3-228E-4919-BEA7-0A427F0B2D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -370,9 +370,6 @@
     <t>芒阿粒子</t>
   </si>
   <si>
-    <t>无知之幕</t>
-  </si>
-  <si>
     <t>卷积神经</t>
   </si>
   <si>
@@ -393,6 +390,17 @@
   </si>
   <si>
     <t>UR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicianAvatar</t>
+  </si>
+  <si>
+    <t>无知幕布</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +770,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1026,7 @@
         <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>34</v>
@@ -1198,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>42</v>
@@ -1243,7 +1251,7 @@
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>73</v>
@@ -1558,10 +1566,10 @@
         <v>64</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="3">
         <v>300</v>
@@ -1618,10 +1626,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1681,7 +1689,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" s="3">
         <v>150</v>
@@ -1719,25 +1727,63 @@
     </row>
     <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="B17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="3">
+        <v>360</v>
+      </c>
+      <c r="F17" s="3">
+        <v>125</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>50</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>

--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -5,21 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9738C3-228E-4919-BEA7-0A427F0B2D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E34F9-B3DD-4FC8-9EAA-2E4028CE781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -769,33 +780,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="7.25" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="17" width="9.5" customWidth="1"/>
-    <col min="18" max="18" width="9.875" customWidth="1"/>
+    <col min="15" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -919,7 +930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -943,7 +954,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -1032,7 +1043,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="3">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K5" s="3">
         <v>10</v>
@@ -1065,7 +1076,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -1092,7 +1103,7 @@
         <v>39</v>
       </c>
       <c r="J6" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K6" s="3">
         <v>30</v>
@@ -1113,7 +1124,7 @@
         <v>0.1</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R6" s="3">
         <v>0</v>
@@ -1125,7 +1136,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -1152,7 +1163,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K7" s="3">
         <v>30</v>
@@ -1173,7 +1184,7 @@
         <v>0.1</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
@@ -1185,7 +1196,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1212,7 +1223,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="3">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K8" s="3">
         <v>10</v>
@@ -1245,7 +1256,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1005</v>
@@ -1272,7 +1283,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="3">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K9" s="3">
         <v>25</v>
@@ -1305,7 +1316,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1006</v>
@@ -1332,7 +1343,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>20</v>
@@ -1365,7 +1376,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1007</v>
@@ -1392,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="J11" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K11" s="3">
         <v>30</v>
@@ -1413,7 +1424,7 @@
         <v>0.1</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R11" s="3">
         <v>0</v>
@@ -1425,7 +1436,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1008</v>
@@ -1452,7 +1463,7 @@
         <v>65</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>30</v>
@@ -1473,7 +1484,7 @@
         <v>0.1</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1485,7 +1496,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1009</v>
@@ -1512,7 +1523,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K13" s="3">
         <v>30</v>
@@ -1533,7 +1544,7 @@
         <v>0.1</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
@@ -1545,7 +1556,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1010</v>
@@ -1572,7 +1583,7 @@
         <v>94</v>
       </c>
       <c r="J14" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K14" s="3">
         <v>50</v>
@@ -1584,10 +1595,10 @@
         <v>0.1</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P14" s="3">
         <v>0.1</v>
@@ -1596,16 +1607,16 @@
         <v>0.1</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1011</v>
@@ -1632,7 +1643,7 @@
         <v>92</v>
       </c>
       <c r="J15" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>50</v>
@@ -1644,10 +1655,10 @@
         <v>0.1</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P15" s="3">
         <v>0.1</v>
@@ -1656,16 +1667,16 @@
         <v>0.1</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1012</v>
@@ -1692,7 +1703,7 @@
         <v>93</v>
       </c>
       <c r="J16" s="3">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K16" s="3">
         <v>25</v>
@@ -1725,7 +1736,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1013</v>
@@ -1752,7 +1763,7 @@
         <v>97</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>50</v>
@@ -1764,10 +1775,10 @@
         <v>0.1</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P17" s="3">
         <v>0.1</v>
@@ -1776,16 +1787,16 @@
         <v>0.1</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1807,7 +1818,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1829,7 +1840,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1851,7 +1862,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1873,7 +1884,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1895,7 +1906,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1931,37 +1942,37 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>

--- a/tools/luban/Datas/Friends.xlsx
+++ b/tools/luban/Datas/Friends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E34F9-B3DD-4FC8-9EAA-2E4028CE781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC1CAED-CDF5-4A4B-B552-25F95E10F134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
